--- a/02.xlsx
+++ b/02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final studens\MOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B540C59-722A-49CD-B1F3-BE3A8540D86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CC4431-9E8C-40A7-8993-E5875149BC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>ຊື່</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>ນ້ອຍກວ່າ 600000</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>you now</t>
   </si>
 </sst>
 </file>
@@ -163,7 +169,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -351,66 +357,66 @@
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -702,290 +708,290 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.6" x14ac:dyDescent="0.65">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="16" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="20"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>6</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>100</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>20</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>80</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>6</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>100</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <v>100</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>6</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>100</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>60</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>40</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>100</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
         <v>100</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>6</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>100</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>30</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>70</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="6">
         <f>COUNTA(A4:A8)</f>
         <v>5</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="6">
         <f>COUNT(E4:E8)</f>
         <v>3</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="7">
         <f>COUNTA(G4:G8)</f>
         <v>1</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1005,172 +1011,180 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8031F78-B6E8-40D2-AF64-26ED63AAC0E3}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="13.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="3"/>
-    <col min="6" max="6" width="31.44140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="31.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.6" x14ac:dyDescent="0.65">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="11">
         <v>12536000</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="13"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="11">
         <v>5615684</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="11">
         <v>29586134</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="11">
         <v>56214613</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="11">
         <v>32163351</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="25"/>
+      <c r="F7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="5">
         <f>COUNTIF(D3:D8,"&gt;4000000")</f>
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="11">
         <v>69845726</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="5">
         <f>COUNTIF(D3:D8,"&lt;6000000")</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/02.xlsx
+++ b/02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final studens\MOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CC4431-9E8C-40A7-8993-E5875149BC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBA9AF8-95AE-4008-83DA-18505DAD3C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>ຊື່</t>
   </si>
@@ -157,10 +157,10 @@
     <t>ນ້ອຍກວ່າ 600000</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>you now</t>
+  </si>
+  <si>
+    <t>ok yet</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.5"/>
@@ -1181,9 +1181,12 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>41</v>
       </c>
     </row>

--- a/02.xlsx
+++ b/02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final studens\MOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBA9AF8-95AE-4008-83DA-18505DAD3C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B540C59-722A-49CD-B1F3-BE3A8540D86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>ຊື່</t>
   </si>
@@ -155,12 +155,6 @@
   </si>
   <si>
     <t>ນ້ອຍກວ່າ 600000</t>
-  </si>
-  <si>
-    <t>you now</t>
-  </si>
-  <si>
-    <t>ok yet</t>
   </si>
 </sst>
 </file>
@@ -169,7 +163,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -357,13 +351,40 @@
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -373,7 +394,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -383,40 +406,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -708,290 +702,290 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="18.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.6" x14ac:dyDescent="0.65">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="21" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="8" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>6</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>100</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>20</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>80</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>6</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>100</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
         <v>100</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>6</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>100</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>60</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>40</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>100</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
         <v>100</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>6</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>100</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>30</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>70</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="14">
         <f>COUNTA(A4:A8)</f>
         <v>5</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="14">
         <f>COUNT(E4:E8)</f>
         <v>3</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="15">
         <f>COUNTA(G4:G8)</f>
         <v>1</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1011,183 +1005,172 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8031F78-B6E8-40D2-AF64-26ED63AAC0E3}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="31.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="13.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="31.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.6" x14ac:dyDescent="0.65">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="25">
         <v>12536000</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="25">
         <v>5615684</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="26"/>
+      <c r="F4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="25">
         <v>29586134</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="25">
         <v>56214613</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="25">
         <v>32163351</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="13">
         <f>COUNTIF(D3:D8,"&gt;4000000")</f>
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="25">
         <v>69845726</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="13">
         <f>COUNTIF(D3:D8,"&lt;6000000")</f>
         <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/02.xlsx
+++ b/02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final studens\MOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBA9AF8-95AE-4008-83DA-18505DAD3C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99E3B6D-5911-4D31-B95A-43118C8494EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1011,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8031F78-B6E8-40D2-AF64-26ED63AAC0E3}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.5"/>
@@ -1180,13 +1180,18 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B9" s="1" t="s">
-        <v>41</v>
+      <c r="B9" s="1">
+        <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
     </row>

--- a/02.xlsx
+++ b/02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final studens\MOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99E3B6D-5911-4D31-B95A-43118C8494EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C253C8-241E-49D8-8B1D-C7863B72FEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.5"/>
